--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/NEW_HAMPSHIRE_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/NEW_HAMPSHIRE_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHAMULA</t>
+          <t>Chamula</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHENALHÓ</t>
+          <t>Chenalhó</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>OCOTEPEC</t>
+          <t>Ocotepec</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>SOCOLTENANGO</t>
+          <t>Socoltenango</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>TEOPISCA</t>
+          <t>Teopisca</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>TUZANTÁN</t>
+          <t>Tuzantán</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C11">
@@ -517,12 +517,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C12">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C13">
@@ -548,12 +548,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C14">
@@ -566,7 +566,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C15">
@@ -579,7 +579,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C16">
@@ -592,7 +592,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C17">
@@ -605,12 +605,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MANZANILLO</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="C18">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>VILLA DE ÁLVAREZ</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C19">
@@ -636,7 +636,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C20">
@@ -649,12 +649,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C21">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C22">
@@ -680,12 +680,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TENANGO DEL VALLE</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C23">
@@ -698,7 +698,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C24">
@@ -711,7 +711,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C25">
@@ -724,12 +724,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C26">
@@ -742,7 +742,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>CORTAZAR</t>
+          <t>Cortazar</t>
         </is>
       </c>
       <c r="C27">
@@ -755,7 +755,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C28">
@@ -768,12 +768,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ATLAMAJALCINGO DEL MONTE</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C29">
@@ -786,7 +786,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>CUALÁC</t>
+          <t>Cualác</t>
         </is>
       </c>
       <c r="C30">
@@ -799,7 +799,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>LA UNIÓN DE ISIDORO MONTES DE OCA</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C31">
@@ -812,7 +812,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>San Luis Acatlán</t>
         </is>
       </c>
       <c r="C32">
@@ -825,7 +825,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN TABLAS</t>
+          <t>Zapotitlán Tablas</t>
         </is>
       </c>
       <c r="C33">
@@ -838,7 +838,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C34">
@@ -851,12 +851,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AUTLÁN DE NAVARRO</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C35">
@@ -869,7 +869,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN DE GARCÍA BARRAGÁN</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C36">
@@ -882,7 +882,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>CUQUÍO</t>
+          <t>Cuquío</t>
         </is>
       </c>
       <c r="C37">
@@ -895,7 +895,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>DEGOLLADO</t>
+          <t>Degollado</t>
         </is>
       </c>
       <c r="C38">
@@ -908,7 +908,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C39">
@@ -921,7 +921,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C40">
@@ -934,12 +934,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COALCOMÁN DE VÁZQUEZ PALLARES</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C41">
@@ -952,7 +952,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>IRIMBO</t>
+          <t>Irimbo</t>
         </is>
       </c>
       <c r="C42">
@@ -965,7 +965,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C43">
@@ -978,7 +978,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C44">
@@ -991,7 +991,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>Pátzcuaro</t>
         </is>
       </c>
       <c r="C45">
@@ -1004,7 +1004,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>ZACAPU</t>
+          <t>Zacapu</t>
         </is>
       </c>
       <c r="C46">
@@ -1017,7 +1017,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C47">
@@ -1030,12 +1030,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EL ESPINAL</t>
+          <t>El Espinal</t>
         </is>
       </c>
       <c r="C48">
@@ -1048,7 +1048,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>HUAJUAPAN DE LEÓN</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C49">
@@ -1061,7 +1061,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN LOXICHA</t>
+          <t>San Agustín Loxicha</t>
         </is>
       </c>
       <c r="C50">
@@ -1074,7 +1074,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>SAN ANTONINO MONTE VERDE</t>
+          <t>San Antonino Monte Verde</t>
         </is>
       </c>
       <c r="C51">
@@ -1087,7 +1087,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>SAN BALTAZAR LOXICHA</t>
+          <t>San Baltazar Loxicha</t>
         </is>
       </c>
       <c r="C52">
@@ -1100,7 +1100,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>SANTA CATARINA LOXICHA</t>
+          <t>Santa Catarina Loxicha</t>
         </is>
       </c>
       <c r="C53">
@@ -1113,7 +1113,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE MORELOS</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C54">
@@ -1126,7 +1126,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C55">
@@ -1139,12 +1139,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ATLIXCO</t>
+          <t>Atlixco</t>
         </is>
       </c>
       <c r="C56">
@@ -1157,7 +1157,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C57">
@@ -1170,7 +1170,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>TEZIUTLÁN</t>
+          <t>Teziutlán</t>
         </is>
       </c>
       <c r="C58">
@@ -1183,7 +1183,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C59">
@@ -1196,12 +1196,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>EL MARQUÉS</t>
+          <t>El Marqués</t>
         </is>
       </c>
       <c r="C60">
@@ -1214,7 +1214,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>LANDA DE MATAMOROS</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C61">
@@ -1227,7 +1227,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C62">
@@ -1240,7 +1240,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C63">
@@ -1253,12 +1253,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C64">
@@ -1271,7 +1271,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C65">
@@ -1284,12 +1284,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CIUDAD VALLES</t>
+          <t>Ciudad Valles</t>
         </is>
       </c>
       <c r="C66">
@@ -1302,7 +1302,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C67">
@@ -1315,12 +1315,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
+          <t>Sombrerete</t>
         </is>
       </c>
       <c r="C68">
@@ -1333,7 +1333,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C69">
@@ -1346,7 +1346,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C70">
@@ -1354,41 +1354,6 @@
       </c>
       <c r="D70">
         <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/NEW_HAMPSHIRE_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/NEW_HAMPSHIRE_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Socoltenango</t>
@@ -476,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -489,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -502,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Villa De Álvarez</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Cualác</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>La Unión De Isidoro Montes De Oca</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Zapotitlán Tablas</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Cuautitlán De García Barragán</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Cuquío</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -950,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Irimbo</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -1002,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1015,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1046,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Huajuapan De León</t>
@@ -1059,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>San Agustín Loxicha</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>San Baltazar Loxicha</t>
@@ -1098,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Santa Catarina Loxicha</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1212,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1225,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1238,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1269,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1300,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1331,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
